--- a/6.Process/BOM/mpu6050.xlsx
+++ b/6.Process/BOM/mpu6050.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60DBDB20-DB7E-4D0B-AD54-AB2E6226BA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Cubli_Mini\6.Process\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE278D75-C4E6-4E5F-A086-B0636B751BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="5490" windowWidth="19995" windowHeight="15435" xr2:uid="{756078BC-EE7F-4CBE-A877-6B55F190B0EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{756078BC-EE7F-4CBE-A877-6B55F190B0EB}"/>
   </bookViews>
   <sheets>
     <sheet name="mpu6050" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Comment</t>
   </si>
@@ -130,6 +135,30 @@
   </si>
   <si>
     <t>QFN-24_L4.0-W4.0-P0.50-BL-EP2.6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贴片电容</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贴片电阻</t>
+    </r>
   </si>
   <si>
     <r>
@@ -154,6 +183,11 @@
       </rPr>
       <t xml:space="preserve"> 16V</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/291420.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -164,8 +198,9 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>贴片电容</t>
+      <t>链接</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -176,15 +211,86 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>贴片电阻</t>
+      <t>途径</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/61185.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/107097.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-1.0-5PLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3039054.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESD5Z3.3C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/515057.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/305682.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/288683.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/226431.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU-6050_C24112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z10.3-c.w4002-23802692547.9.1b7931e6lObMGo&amp;id=635813221292</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>淘宝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立创商城</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +319,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -228,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -251,13 +366,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,9 +408,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,16 +735,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD932D8-0838-4B3D-A42A-735134BD6914}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,13 +766,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -632,13 +792,19 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -652,13 +818,19 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -672,10 +844,16 @@
       <c r="F4" s="3">
         <v>2</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -692,10 +870,16 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
+      <c r="G5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -712,13 +896,19 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -732,13 +922,19 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
+      <c r="G7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -752,13 +948,19 @@
       <c r="F8" s="3">
         <v>2</v>
       </c>
+      <c r="G8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -772,10 +974,16 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
+      <c r="G9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
@@ -791,11 +999,28 @@
       </c>
       <c r="F10" s="3">
         <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{093C4549-8555-419F-950E-AA2D73F6174D}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{75A42669-1BF2-4C94-850F-E80E3D57081D}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{F3460749-0845-4DFF-8EF8-5B8B5589EFC6}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{E125021A-7FA3-48A2-9A4F-F1C3C2A3A9B3}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{4B8EB99C-5CCC-43FA-9CEA-98EEA83FA14D}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{90F84B3A-0605-4FA3-B6F4-6951FF28698B}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{571F44E1-70D1-4CBA-9D0A-5368E323FB00}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{575EB363-10B0-427B-8A3A-ED173C057EB8}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{11ED50B5-1806-493C-937B-185C6E3D7F75}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/6.Process/BOM/mpu6050.xlsx
+++ b/6.Process/BOM/mpu6050.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Cubli_Mini\6.Process\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE278D75-C4E6-4E5F-A086-B0636B751BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A049F4D3-21C3-45A2-AF33-828D8E8DEBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{756078BC-EE7F-4CBE-A877-6B55F190B0EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpu6050" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Comment</t>
   </si>
@@ -51,90 +38,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>0402_C</t>
-  </si>
-  <si>
-    <t>0402 100nF (104) 10% 16V</t>
-  </si>
-  <si>
-    <t>10nF (103) 10% 50V</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>0402 10nF (103) 10% 50V</t>
-  </si>
-  <si>
-    <t>100nF (104) 10% 16V</t>
-  </si>
-  <si>
-    <t>C5, C6</t>
-  </si>
-  <si>
-    <t>HC-1.0-5PLT</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>CN1</t>
-  </si>
-  <si>
-    <t>CONN-SMD_5P-P1.00_HCTL_HC-1.0-5PLT</t>
-  </si>
-  <si>
-    <t>ESD5Z3.3C</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>SOD-523_L1.2-W0.8-LS1.6-BI</t>
-  </si>
-  <si>
-    <t>0Ω (0R0) ±1%</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>0402_R</t>
-  </si>
-  <si>
-    <t>0402 0Ω (0R0) 1%</t>
-  </si>
-  <si>
-    <t>4.7KΩ (4701) ±1%</t>
-  </si>
-  <si>
-    <t>R12, R13</t>
-  </si>
-  <si>
-    <t>0402 4.7KΩ (4701) 1%</t>
-  </si>
-  <si>
-    <t>1KΩ (1001) ±1%</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>0402 1KΩ (1001) 1%</t>
-  </si>
-  <si>
-    <t>MPU-6050_C24112</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>QFN-24_L4.0-W4.0-P0.50-BL-EP2.6</t>
   </si>
   <si>
     <r>
@@ -142,10 +45,9 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>贴片电容</t>
+      <t>途径</t>
     </r>
   </si>
   <si>
@@ -154,14 +56,19 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>贴片电阻</t>
+      <t>链接</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
       <t>2.2uF ±10</t>
     </r>
     <r>
@@ -169,7 +76,6 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>％</t>
@@ -183,11 +89,6 @@
       </rPr>
       <t xml:space="preserve"> 16V</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.szlcsc.com/291420.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -195,12 +96,19 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>链接</t>
+      <t>贴片电容</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>0402_C</t>
+  </si>
+  <si>
+    <t>0402 100nF (104) 10% 16V</t>
   </si>
   <si>
     <r>
@@ -208,56 +116,49 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>途径</t>
+      <t>立创商城</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.szlcsc.com/61185.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.szlcsc.com/107097.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10nF (103) 10% 50V</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>0402 10nF (103) 10% 50V</t>
+  </si>
+  <si>
+    <t>100nF (104) 10% 16V</t>
+  </si>
+  <si>
+    <t>C5, C6</t>
   </si>
   <si>
     <t>HC-1.0-5PLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.szlcsc.com/3039054.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CN1</t>
+  </si>
+  <si>
+    <t>CONN-SMD_5P-P1.00_HCTL_HC-1.0-5PLT</t>
   </si>
   <si>
     <t>ESD5Z3.3C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.szlcsc.com/515057.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.szlcsc.com/305682.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.szlcsc.com/288683.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.szlcsc.com/226431.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPU-6050_C24112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z10.3-c.w4002-23802692547.9.1b7931e6lObMGo&amp;id=635813221292</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SOD-523_L1.2-W0.8-LS1.6-BI</t>
+  </si>
+  <si>
+    <t>0Ω (0R0) ±1%</t>
   </si>
   <si>
     <r>
@@ -265,12 +166,46 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>淘宝</t>
+      <t>贴片电阻</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>0402_R</t>
+  </si>
+  <si>
+    <t>0402 0Ω (0R0) 1%</t>
+  </si>
+  <si>
+    <t>4.7KΩ (4701) ±1%</t>
+  </si>
+  <si>
+    <t>R12, R13</t>
+  </si>
+  <si>
+    <t>0402 4.7KΩ (4701) 1%</t>
+  </si>
+  <si>
+    <t>1KΩ (1001) ±1%</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>0402 1KΩ (1001) 1%</t>
+  </si>
+  <si>
+    <t>MPU-6050_C24112</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>QFN-24_L4.0-W4.0-P0.50-BL-EP2.6</t>
   </si>
   <si>
     <r>
@@ -278,31 +213,57 @@
         <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>立创商城</t>
+      <t>淘宝</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/61185.html</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/107097.html</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3039054.html</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/515057.html</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/305682.html</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/288683.html</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/226431.html</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z10.3-c.w4002-23802692547.9.1b7931e6lObMGo&amp;id=635813221292</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/306650.html</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -313,18 +274,31 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -353,25 +327,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -379,7 +353,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -391,34 +365,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -481,7 +461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -514,26 +494,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -566,23 +529,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -725,300 +671,297 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD932D8-0838-4B3D-A42A-735134BD6914}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="95.375" customWidth="1"/>
+    <col min="9" max="9" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>38</v>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
+      <c r="E9" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{093C4549-8555-419F-950E-AA2D73F6174D}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{75A42669-1BF2-4C94-850F-E80E3D57081D}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{F3460749-0845-4DFF-8EF8-5B8B5589EFC6}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{E125021A-7FA3-48A2-9A4F-F1C3C2A3A9B3}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{4B8EB99C-5CCC-43FA-9CEA-98EEA83FA14D}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{90F84B3A-0605-4FA3-B6F4-6951FF28698B}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{571F44E1-70D1-4CBA-9D0A-5368E323FB00}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{575EB363-10B0-427B-8A3A-ED173C057EB8}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{11ED50B5-1806-493C-937B-185C6E3D7F75}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H2" r:id="rId9" xr:uid="{2FA14A77-2732-4733-AC12-76792E0F1231}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
